--- a/pred_ohlcv/54_21/2020-01-19 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 OCN ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-8349991.917100001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-8406054.767200001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-8406054.767200001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-8386667.767200001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-8390637.507200001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-8390637.507200001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-8682342.474000001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-6518496.806700001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-6543496.806700001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-6454123.019000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-6667503.019000001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-6768503.019000001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-6707233.019000001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-6519402.512600001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-6519402.512600001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-6600542.512600001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-7048042.512600001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-7574604.023100001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7466980.7558</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-8609017.097200001</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-8603243.323700001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-8895076.491400002</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-9070240.854000002</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-9073654.426700002</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-9005125.606300002</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-9004145.606300002</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-9368878.430500003</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-8474250.507300003</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-8473250.507300003</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-10532463.0684</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-11452527.7284</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-13118604.0613</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-14264211.5238</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-13512676.5406</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-13288156.5406</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-6930048.864337342</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-10451759.05055737</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-10456401.49185737</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-11338459.20465737</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-11760948.74175737</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-11874801.74175737</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-11824801.74175737</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-10869473.19375737</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-10869473.19375737</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-10433827.29375737</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-10530557.29375737</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-10515154.29375737</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-10516972.29375737</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-8702270.845157374</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-8704088.845157374</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-6920385.207157373</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-6925290.217157373</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-6925290.217157373</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-6925290.217157373</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-7132461.924057373</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-12470804.83565737</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-12470804.83565737</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 OCN ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-8354668.917100001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-8349991.917100001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8349991.917100001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-8379434.767200002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-8406054.767200001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-8406054.767200001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-8386667.767200001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-8390637.507200001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-6543496.806700001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-6768503.019000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-6707233.019000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-6519402.512600001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-6519402.512600001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-6600542.512600001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-7048042.512600001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-7574604.023100001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7466980.7558</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-8609017.097200001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-8603243.323700001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-8895076.491400002</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-9070240.854000002</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-9073654.426700002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-9005125.606300002</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-8473250.507300003</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-10532463.0684</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-11452527.7284</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-11389312.0476</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-14264211.5238</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-13512676.5406</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-13288156.5406</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-11498151.57883734</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-6930048.864337342</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-9954707.852057375</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-10451759.05055737</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-10456401.49185737</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-11525529.02655737</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-11338459.20465737</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-11760948.74175737</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-11759130.74175737</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-11874801.74175737</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-11824801.74175737</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-10869473.19375737</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-10869473.19375737</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-10433827.29375737</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-10530557.29375737</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-10530557.29375737</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-10515154.29375737</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-10516972.29375737</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-8702270.845157374</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-8704088.845157374</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-8702270.845157374</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-8706582.342057373</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-8706582.342057373</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-8763582.342057373</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-8765400.342057373</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-8795400.342057373</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-7737365.978257373</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-7022203.207157373</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-6922203.207157373</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-6922203.207157373</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-6925290.217157373</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-6925290.217157373</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-7132461.924057373</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-12470804.83565737</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-12470804.83565737</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
